--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/17/incorrect_predictions_17.xlsx
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>3-22</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Altitude Less than nnn</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>0-3</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">

--- a/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/17/incorrect_predictions_17.xlsx
+++ b/experiments/evaluation/llm-seed/roberta-base_15/rem-100_remove/rem2/17/incorrect_predictions_17.xlsx
@@ -537,21 +537,21 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient Fly with caution .</t>
+          <t>Extra payload detected Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety .</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Aircraft power insufficient</t>
+          <t>Return aircraft to an area nearby the home point promptly and fly in a wind-free environment to ensure flight safety</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>0-2</t>
+          <t>3-22</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
@@ -562,21 +562,21 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn Cannot enable Follow Me Mode .</t>
+          <t>Aircraft power insufficient Fly with caution .</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Altitude Less than nnn</t>
+          <t>Aircraft power insufficient</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>0-3</t>
+          <t>0-2</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
